--- a/scripts/excel/TIN Datacenter Cloud & PlataformOPS.xlsx
+++ b/scripts/excel/TIN Datacenter Cloud & PlataformOPS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\weg\automacaopmobackend\scripts\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A3A05DC-E1B6-49E0-A2CF-D7718CD25574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDC48B62-1C92-4C12-958D-4C25B5F847F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog Servers" sheetId="2" r:id="rId1"/>
@@ -37182,7 +37182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFB198F-52FF-42E0-B4E9-9E5A3CBDE588}">
   <dimension ref="A1:AM30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
@@ -39998,7 +39998,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50532,7 +50532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8024C391-3358-4ABD-9046-4B1C14BF0475}">
   <dimension ref="A1:AM92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
